--- a/kimai-data/21/pay-period-21.xlsx
+++ b/kimai-data/21/pay-period-21.xlsx
@@ -477,16 +477,16 @@
         <f>F6 + G6</f>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>Extra 8.00 hours carry over</v>
       </c>
     </row>
     <row r="7">
@@ -593,16 +593,16 @@
         <f>F10 + G10</f>
       </c>
       <c r="F10">
-        <v>50.25</v>
+        <v>54.25</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10">
-        <v>40.25</v>
+        <v>44.25</v>
       </c>
       <c r="I10" t="str">
-        <v/>
+        <v>Extra 4.25 hours carry over</v>
       </c>
     </row>
     <row r="11">

--- a/kimai-data/21/pay-period-21.xlsx
+++ b/kimai-data/21/pay-period-21.xlsx
@@ -477,16 +477,16 @@
         <f>F6 + G6</f>
       </c>
       <c r="F6">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I6" t="str">
-        <v>Extra 8.00 hours carry over</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         <f>F8 + G8</f>
       </c>
       <c r="F8">
-        <v>89.5</v>
+        <v>81.5</v>
       </c>
       <c r="G8">
-        <v>44.75</v>
+        <v>40.75</v>
       </c>
       <c r="H8">
-        <v>44.75</v>
+        <v>40.75</v>
       </c>
       <c r="I8" t="str">
-        <v>Extra 9.50 hours carry over</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -593,16 +593,16 @@
         <f>F10 + G10</f>
       </c>
       <c r="F10">
-        <v>54.25</v>
+        <v>50.25</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10">
-        <v>44.25</v>
+        <v>40.25</v>
       </c>
       <c r="I10" t="str">
-        <v>Extra 4.25 hours carry over</v>
+        <v/>
       </c>
     </row>
     <row r="11">
